--- a/limits.xlsx
+++ b/limits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
   <si>
     <t>master Reservation Reserved By</t>
   </si>
@@ -73,34 +73,37 @@
     <t>Scheduled</t>
   </si>
   <si>
-    <t>6811</t>
-  </si>
-  <si>
-    <t>7633</t>
-  </si>
-  <si>
-    <t>7634</t>
-  </si>
-  <si>
-    <t>9356</t>
-  </si>
-  <si>
-    <t>6868</t>
-  </si>
-  <si>
-    <t>9367</t>
-  </si>
-  <si>
-    <t>7391</t>
-  </si>
-  <si>
-    <t>6315</t>
-  </si>
-  <si>
-    <t>5193</t>
-  </si>
-  <si>
-    <t>7315</t>
+    <t>06811</t>
+  </si>
+  <si>
+    <t>07633</t>
+  </si>
+  <si>
+    <t>07634</t>
+  </si>
+  <si>
+    <t>09356</t>
+  </si>
+  <si>
+    <t>06868</t>
+  </si>
+  <si>
+    <t>09367</t>
+  </si>
+  <si>
+    <t>07391</t>
+  </si>
+  <si>
+    <t>06315</t>
+  </si>
+  <si>
+    <t>05193</t>
+  </si>
+  <si>
+    <t>07315</t>
+  </si>
+  <si>
+    <t>10218</t>
   </si>
   <si>
     <t>Stainless steel Tube for steam tracing ASTMA269 TP304 Welded Annealed Tube 1/2" O.D x 0.035" THK / Трубка из нержавеющей стали для пароспутника</t>
@@ -131,6 +134,9 @@
   </si>
   <si>
     <t>Аргон газ особой чистоты 6.0 ТУ 2114-003-37924839-2016 (99,9999%)</t>
+  </si>
+  <si>
+    <t>Tsh 6.1-00203849-59:2008 Азот (газ ҳолда, 40 литр, сиғими 6,2 м3 баллонда)</t>
   </si>
   <si>
     <t>Strapping tool for insulation works / Обвязочный инструмент для изоляции. Натяжитель из нержавеющей стали с облицовкой из нержавеющей стали от 1/2 до 3/4 дюймов</t>
@@ -512,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>30</v>
@@ -617,7 +623,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3">
         <v>4794.6</v>
@@ -646,13 +652,13 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>171.3</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>153</v>
@@ -661,16 +667,16 @@
         <v>45933</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
         <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -696,13 +702,13 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5">
         <v>171.3</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5">
         <v>28.5</v>
@@ -711,16 +717,16 @@
         <v>72576</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -746,7 +752,7 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6">
         <v>4978.7</v>
@@ -775,13 +781,13 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7">
         <v>162</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -790,16 +796,16 @@
         <v>72576</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -825,13 +831,13 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8">
         <v>136</v>
@@ -840,16 +846,16 @@
         <v>45933</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -875,13 +881,13 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9">
         <v>1.55</v>
@@ -890,16 +896,16 @@
         <v>72576</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -925,13 +931,13 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10">
         <v>307.2</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>55.2</v>
@@ -940,16 +946,16 @@
         <v>45933</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -975,13 +981,13 @@
         <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11">
         <v>300</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -990,16 +996,16 @@
         <v>45933</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1025,7 +1031,7 @@
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12">
         <v>150</v>
@@ -1054,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -1083,7 +1089,7 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -1112,10 +1118,97 @@
         <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I15">
         <v>7.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>81769</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>6766</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>81769</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>6773</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>81769</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>6828</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
